--- a/PantallasSoccer.xlsx
+++ b/PantallasSoccer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\soccer_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9144F575-73A2-46C1-A925-222781AC7CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6B9256-C569-4365-8B52-642D2462B7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -416,7 +416,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9860280" y="3855721"/>
+          <a:off x="11567160" y="3855721"/>
           <a:ext cx="1251429" cy="2942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1391,7 +1391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1521,7 +1521,7 @@
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2"/>
@@ -1560,7 +1560,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2"/>
@@ -1616,7 +1616,7 @@
       <c r="R11" s="3"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2"/>
@@ -1757,12 +1757,16 @@
         <v>4</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="M21" t="s">
+      <c r="M21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="P21" t="s">
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
       <c r="S21" t="s">
         <v>10</v>
       </c>
@@ -1775,27 +1779,151 @@
         <v>21</v>
       </c>
       <c r="C22" s="2"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="C23" s="2"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+    </row>
+    <row r="33" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+    </row>
+    <row r="34" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+    </row>
+    <row r="35" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+    </row>
+    <row r="36" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
     </row>
     <row r="40" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C40" s="3" t="s">
@@ -1808,9 +1936,11 @@
       </c>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
-      <c r="I40" t="s">
+      <c r="I40" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
       <c r="M40" t="s">
         <v>12</v>
       </c>
@@ -1834,6 +1964,9 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
     </row>
     <row r="42" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C42" s="3"/>
@@ -1842,6 +1975,9 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
     </row>
     <row r="43" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C43" s="3"/>
@@ -1850,6 +1986,9 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
     </row>
     <row r="44" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C44" s="3"/>
@@ -1858,6 +1997,9 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
     </row>
     <row r="45" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C45" s="3"/>
@@ -1866,6 +2008,9 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
     </row>
     <row r="46" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C46" s="3"/>
@@ -1874,6 +2019,9 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
     </row>
     <row r="47" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C47" s="3"/>
@@ -1882,6 +2030,9 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
     </row>
     <row r="48" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C48" s="3"/>
@@ -1890,6 +2041,9 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
     </row>
     <row r="49" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C49" s="3"/>
@@ -1898,6 +2052,9 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
     </row>
     <row r="50" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C50" s="3"/>
@@ -1906,6 +2063,9 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
     </row>
     <row r="51" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C51" s="3"/>
@@ -1914,6 +2074,9 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
     </row>
     <row r="52" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C52" s="3"/>
@@ -1922,6 +2085,9 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
     </row>
     <row r="53" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C53" s="3"/>
@@ -1930,6 +2096,9 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
     </row>
     <row r="54" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C54" s="3"/>
@@ -1938,6 +2107,9 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
     </row>
     <row r="55" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C55" s="3"/>
@@ -1946,6 +2118,9 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
     </row>
     <row r="56" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C56" s="3"/>
@@ -1954,6 +2129,9 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
     </row>
     <row r="57" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C57" s="3"/>
@@ -1962,6 +2140,9 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
     </row>
     <row r="58" spans="3:19" x14ac:dyDescent="0.3">
       <c r="P58" t="s">

--- a/PantallasSoccer.xlsx
+++ b/PantallasSoccer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\soccer_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6B9256-C569-4365-8B52-642D2462B7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6FD6F0-EBFC-4D0F-BF37-EB96166F2A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,138 +559,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>70329</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>54877</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Imagen 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{756BEBFC-CA99-470F-9076-FD1B308B769C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7353300" y="13754100"/>
-          <a:ext cx="1251429" cy="2942857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>70329</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>54878</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Imagen 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77E2E77F-5996-0149-9108-E86B2121C595}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9182100" y="13754101"/>
-          <a:ext cx="1251429" cy="2942857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>70329</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>54878</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Imagen 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ED599B6-0752-EA4C-2D59-17E9F62D0E5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11010900" y="13754101"/>
-          <a:ext cx="1251429" cy="2942857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -799,50 +667,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>70329</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>62497</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Imagen 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB7D9613-128F-4CC0-924F-33698291F9CA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7353300" y="10287000"/>
-          <a:ext cx="1251429" cy="2942857"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>40</xdr:row>
@@ -868,7 +692,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1018,7 +842,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1062,7 +886,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1106,6 +930,138 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="7345680"/>
+          <a:ext cx="1251429" cy="2942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30481</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>62710</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>16778</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{606813D1-031F-09BB-F3AE-D7EE688DE88A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9723121" y="7315201"/>
+          <a:ext cx="1251429" cy="2942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>70330</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>32018</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF213D2-A838-AA04-0A7B-24867BEE04D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13388341" y="7330441"/>
+          <a:ext cx="1251429" cy="2942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>39849</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>24398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Imagen 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C59D1D-4CB6-4DE3-242B-692FFAC49BDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
@@ -1113,7 +1069,139 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3733800" y="7345680"/>
+          <a:off x="15186660" y="7322821"/>
+          <a:ext cx="1251429" cy="2942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>26894</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>59123</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>92081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2340FCA-5817-908A-9364-D854D1435A0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11564470" y="10596283"/>
+          <a:ext cx="1251429" cy="2942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>35860</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>68089</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>101046</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23D68CFD-43E3-AA95-9A2D-5EE68B88A4A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13402236" y="10605248"/>
+          <a:ext cx="1251429" cy="2942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>44825</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>77054</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>92081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C979B25-60D7-17C3-884D-60EB37F78C91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753601" y="10596283"/>
           <a:ext cx="1251429" cy="2942857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1391,7 +1479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1540,7 +1628,7 @@
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="2"/>
@@ -1579,7 +1667,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2"/>
@@ -1598,7 +1686,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="2"/>
@@ -1671,7 +1759,7 @@
       <c r="R14" s="3"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="3"/>
@@ -1688,7 +1776,7 @@
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="3"/>
@@ -1704,7 +1792,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -1721,7 +1809,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1738,12 +1826,12 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1752,7 +1840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1767,14 +1855,18 @@
       </c>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
-      <c r="S21" t="s">
+      <c r="S21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V21" t="s">
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -1785,8 +1877,14 @@
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="C23" s="2"/>
       <c r="M23" s="3"/>
@@ -1795,8 +1893,14 @@
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="M24" s="3"/>
@@ -1805,8 +1909,14 @@
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="M25" s="3"/>
@@ -1815,8 +1925,14 @@
       <c r="P25" s="3"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="M26" s="3"/>
@@ -1825,8 +1941,14 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1836,46 +1958,82 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
       <c r="P28" s="3"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="P29" s="3"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
     </row>
     <row r="33" spans="3:25" x14ac:dyDescent="0.3">
       <c r="M33" s="3"/>
@@ -1884,6 +2042,12 @@
       <c r="P33" s="3"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
     </row>
     <row r="34" spans="3:25" x14ac:dyDescent="0.3">
       <c r="M34" s="3"/>
@@ -1892,6 +2056,12 @@
       <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
     </row>
     <row r="35" spans="3:25" x14ac:dyDescent="0.3">
       <c r="M35" s="3"/>
@@ -1900,6 +2070,12 @@
       <c r="P35" s="3"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
     </row>
     <row r="36" spans="3:25" x14ac:dyDescent="0.3">
       <c r="M36" s="3"/>
@@ -1908,6 +2084,12 @@
       <c r="P36" s="3"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
     </row>
     <row r="37" spans="3:25" x14ac:dyDescent="0.3">
       <c r="M37" s="3"/>
@@ -1916,6 +2098,12 @@
       <c r="P37" s="3"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
     </row>
     <row r="38" spans="3:25" x14ac:dyDescent="0.3">
       <c r="M38" s="3"/>
@@ -1924,6 +2112,12 @@
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
     </row>
     <row r="40" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C40" s="3" t="s">

--- a/PantallasSoccer.xlsx
+++ b/PantallasSoccer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\soccer_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6FD6F0-EBFC-4D0F-BF37-EB96166F2A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A39DB38-F3E9-4D7B-8DCB-4042FD18FEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1479,7 +1479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1723,7 +1725,7 @@
       <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="2"/>
@@ -1741,7 +1743,7 @@
       <c r="R13" s="3"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B14" s="2"/>
@@ -2135,12 +2137,16 @@
       </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-      <c r="M40" t="s">
+      <c r="M40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="P40" t="s">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
       <c r="S40" t="s">
         <v>8</v>
       </c>
@@ -2161,6 +2167,12 @@
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
     </row>
     <row r="42" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C42" s="3"/>
@@ -2172,6 +2184,12 @@
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
     </row>
     <row r="43" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C43" s="3"/>
@@ -2183,6 +2201,12 @@
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
     </row>
     <row r="44" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C44" s="3"/>
@@ -2194,6 +2218,12 @@
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
     </row>
     <row r="45" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C45" s="3"/>
@@ -2205,6 +2235,12 @@
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
     </row>
     <row r="46" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C46" s="3"/>
@@ -2216,6 +2252,12 @@
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
     </row>
     <row r="47" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C47" s="3"/>
@@ -2227,6 +2269,12 @@
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
     </row>
     <row r="48" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C48" s="3"/>
@@ -2238,6 +2286,12 @@
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
+      <c r="R48" s="3"/>
     </row>
     <row r="49" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C49" s="3"/>
@@ -2249,6 +2303,12 @@
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
     </row>
     <row r="50" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C50" s="3"/>
@@ -2260,6 +2320,12 @@
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
     </row>
     <row r="51" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C51" s="3"/>
@@ -2271,6 +2337,12 @@
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
     </row>
     <row r="52" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C52" s="3"/>
@@ -2282,6 +2354,12 @@
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
     </row>
     <row r="53" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C53" s="3"/>
@@ -2293,6 +2371,12 @@
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
     </row>
     <row r="54" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C54" s="3"/>
@@ -2304,6 +2388,12 @@
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
     </row>
     <row r="55" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C55" s="3"/>
@@ -2315,6 +2405,12 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
     </row>
     <row r="56" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C56" s="3"/>
@@ -2326,6 +2422,12 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
     </row>
     <row r="57" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C57" s="3"/>
@@ -2337,6 +2439,12 @@
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
     </row>
     <row r="58" spans="3:19" x14ac:dyDescent="0.3">
       <c r="P58" t="s">

--- a/PantallasSoccer.xlsx
+++ b/PantallasSoccer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\soccer_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A39DB38-F3E9-4D7B-8DCB-4042FD18FEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FC1D9A-06A8-4C9D-9D53-E70B97C2E547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1477,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y59"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1812,7 +1812,7 @@
       <c r="R17" s="3"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="3"/>
@@ -2452,15 +2452,102 @@
       </c>
     </row>
     <row r="59" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="M59" t="s">
+      <c r="M59" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
       <c r="P59" t="s">
         <v>14</v>
       </c>
       <c r="S59" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PantallasSoccer.xlsx
+++ b/PantallasSoccer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\soccer_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FC1D9A-06A8-4C9D-9D53-E70B97C2E547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC39D6F-C147-497D-963E-469F8A4E657C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1479,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="L40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="W57" sqref="W57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1829,12 +1829,12 @@
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="2"/>
@@ -1843,7 +1843,7 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="2"/>
@@ -1869,7 +1869,7 @@
       <c r="X21" s="3"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="2"/>
@@ -2293,7 +2293,7 @@
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2310,7 +2310,7 @@
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2327,7 +2327,7 @@
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
     </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2344,7 +2344,7 @@
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
     </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2361,7 +2361,7 @@
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2378,7 +2378,7 @@
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
     </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2395,7 +2395,7 @@
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2412,7 +2412,7 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
     </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2429,7 +2429,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2446,108 +2446,234 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.3">
-      <c r="P58" t="s">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="P58" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="Q58" s="3"/>
+      <c r="R58" s="3"/>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.3">
       <c r="M59" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N59" s="3"/>
       <c r="O59" s="3"/>
-      <c r="P59" t="s">
+      <c r="P59" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="S59" t="s">
+      <c r="Q59" s="3"/>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="T59" s="3"/>
+      <c r="U59" s="3"/>
+      <c r="V59" s="3"/>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.3">
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.3">
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3"/>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.3">
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.3">
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.3">
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3"/>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.3">
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+    </row>
+    <row r="65" spans="13:22" x14ac:dyDescent="0.3">
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
       <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+    </row>
+    <row r="66" spans="13:22" x14ac:dyDescent="0.3">
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
       <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+    </row>
+    <row r="67" spans="13:22" x14ac:dyDescent="0.3">
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="13:22" x14ac:dyDescent="0.3">
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
       <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+    </row>
+    <row r="69" spans="13:22" x14ac:dyDescent="0.3">
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
       <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+    </row>
+    <row r="70" spans="13:22" x14ac:dyDescent="0.3">
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
       <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+    </row>
+    <row r="71" spans="13:22" x14ac:dyDescent="0.3">
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
       <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+    </row>
+    <row r="72" spans="13:22" x14ac:dyDescent="0.3">
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
       <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+    </row>
+    <row r="73" spans="13:22" x14ac:dyDescent="0.3">
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
       <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+    </row>
+    <row r="74" spans="13:22" x14ac:dyDescent="0.3">
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
       <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+    </row>
+    <row r="75" spans="13:22" x14ac:dyDescent="0.3">
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
       <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="13:15" x14ac:dyDescent="0.3">
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+    </row>
+    <row r="76" spans="13:22" x14ac:dyDescent="0.3">
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
       <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PantallasSoccer.xlsx
+++ b/PantallasSoccer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\soccer_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC39D6F-C147-497D-963E-469F8A4E657C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BAFC6D-936E-48DE-8E6A-77CC09024B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1211,6 +1211,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>77052</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>83116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagen 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E762FAB9-B385-4496-B6EF-EDE08B8BE9E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17068799" y="7180730"/>
+          <a:ext cx="1251429" cy="2942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1479,9 +1523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="W57" sqref="W57"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1778,7 +1820,7 @@
       <c r="R15" s="3"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G16" s="3"/>
@@ -2150,9 +2192,11 @@
       <c r="S40" t="s">
         <v>8</v>
       </c>
-      <c r="V40" t="s">
+      <c r="V40" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
       <c r="Y40" t="s">
         <v>6</v>
       </c>
@@ -2173,6 +2217,9 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
       <c r="R41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
     </row>
     <row r="42" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C42" s="3"/>
@@ -2190,6 +2237,9 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
     </row>
     <row r="43" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C43" s="3"/>
@@ -2207,6 +2257,9 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
       <c r="R43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
     </row>
     <row r="44" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C44" s="3"/>
@@ -2224,6 +2277,9 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
       <c r="R44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
     </row>
     <row r="45" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C45" s="3"/>
@@ -2241,6 +2297,9 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
       <c r="R45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
     </row>
     <row r="46" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C46" s="3"/>
@@ -2258,6 +2317,9 @@
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
     </row>
     <row r="47" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C47" s="3"/>
@@ -2275,6 +2337,9 @@
       <c r="P47" s="3"/>
       <c r="Q47" s="3"/>
       <c r="R47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
     </row>
     <row r="48" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C48" s="3"/>
@@ -2292,8 +2357,11 @@
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2309,8 +2377,11 @@
       <c r="P49" s="3"/>
       <c r="Q49" s="3"/>
       <c r="R49" s="3"/>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3"/>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2326,8 +2397,11 @@
       <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2343,8 +2417,11 @@
       <c r="P51" s="3"/>
       <c r="Q51" s="3"/>
       <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2360,8 +2437,11 @@
       <c r="P52" s="3"/>
       <c r="Q52" s="3"/>
       <c r="R52" s="3"/>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2377,8 +2457,11 @@
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2394,8 +2477,11 @@
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2411,8 +2497,11 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2428,8 +2517,11 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.3">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2445,15 +2537,18 @@
       <c r="P57" s="3"/>
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.3">
       <c r="P58" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.3">
       <c r="M59" s="3" t="s">
         <v>13</v>
       </c>
@@ -2471,7 +2566,7 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.3">
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -2483,7 +2578,7 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.3">
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
@@ -2495,7 +2590,7 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.3">
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -2507,7 +2602,7 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.3">
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -2519,7 +2614,7 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
     </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:24" x14ac:dyDescent="0.3">
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>

--- a/PantallasSoccer.xlsx
+++ b/PantallasSoccer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\soccer_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BAFC6D-936E-48DE-8E6A-77CC09024B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910D7A1C-C3C7-4C4E-9044-E9F3249D36C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1521,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:AA76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1837,7 +1837,7 @@
       <c r="R16" s="3"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="3"/>
@@ -2079,7 +2079,7 @@
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:27" x14ac:dyDescent="0.3">
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
@@ -2093,7 +2093,7 @@
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:27" x14ac:dyDescent="0.3">
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
@@ -2107,7 +2107,7 @@
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
     </row>
-    <row r="35" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:27" x14ac:dyDescent="0.3">
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -2121,7 +2121,7 @@
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
     </row>
-    <row r="36" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:27" x14ac:dyDescent="0.3">
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -2135,7 +2135,7 @@
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
     </row>
-    <row r="37" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:27" x14ac:dyDescent="0.3">
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -2149,7 +2149,7 @@
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
     </row>
-    <row r="38" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:27" x14ac:dyDescent="0.3">
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -2163,7 +2163,7 @@
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
     </row>
-    <row r="40" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C40" s="3" t="s">
         <v>2</v>
       </c>
@@ -2197,11 +2197,13 @@
       </c>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-      <c r="Y40" t="s">
+      <c r="Y40" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -2220,8 +2222,11 @@
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
       <c r="X41" s="3"/>
-    </row>
-    <row r="42" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+    </row>
+    <row r="42" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
@@ -2240,8 +2245,11 @@
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
       <c r="X42" s="3"/>
-    </row>
-    <row r="43" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+    </row>
+    <row r="43" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -2260,8 +2268,11 @@
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
       <c r="X43" s="3"/>
-    </row>
-    <row r="44" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+    </row>
+    <row r="44" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
@@ -2280,8 +2291,11 @@
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
       <c r="X44" s="3"/>
-    </row>
-    <row r="45" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+    </row>
+    <row r="45" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
@@ -2300,8 +2314,11 @@
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
       <c r="X45" s="3"/>
-    </row>
-    <row r="46" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+    </row>
+    <row r="46" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
@@ -2320,8 +2337,11 @@
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
       <c r="X46" s="3"/>
-    </row>
-    <row r="47" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+    </row>
+    <row r="47" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
@@ -2340,8 +2360,11 @@
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
-    </row>
-    <row r="48" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+    </row>
+    <row r="48" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -2360,8 +2383,11 @@
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
@@ -2380,8 +2406,11 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
@@ -2400,8 +2429,11 @@
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="Y50" s="3"/>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
@@ -2420,8 +2452,11 @@
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
@@ -2440,8 +2475,11 @@
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
@@ -2460,8 +2498,11 @@
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
       <c r="X53" s="3"/>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
@@ -2480,8 +2521,11 @@
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
       <c r="X54" s="3"/>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2500,8 +2544,11 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -2520,8 +2567,11 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2540,15 +2590,18 @@
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
       <c r="X57" s="3"/>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.3">
       <c r="P58" s="3" t="s">
         <v>15</v>
       </c>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.3">
       <c r="M59" s="3" t="s">
         <v>13</v>
       </c>
@@ -2566,7 +2619,7 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.3">
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
       <c r="O60" s="3"/>
@@ -2578,7 +2631,7 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.3">
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
       <c r="O61" s="3"/>
@@ -2590,7 +2643,7 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.3">
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
       <c r="O62" s="3"/>
@@ -2602,7 +2655,7 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.3">
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
       <c r="O63" s="3"/>
@@ -2614,7 +2667,7 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
     </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:27" x14ac:dyDescent="0.3">
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
       <c r="O64" s="3"/>

--- a/PantallasSoccer.xlsx
+++ b/PantallasSoccer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Flutter\soccer_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910D7A1C-C3C7-4C4E-9044-E9F3249D36C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F26D8A-E91B-4A35-9D0A-5AE90A07C84F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,18 +106,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -138,11 +132,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1523,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1533,1295 +1526,1351 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="G1" s="3" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="C5" s="1"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
+      <c r="C6" s="1"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
+      <c r="C9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+      <c r="C11" s="1"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
+      <c r="B13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
+      <c r="B14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="P20" s="2" t="s">
+      <c r="C20" s="1"/>
+      <c r="P20" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="M21" s="3" t="s">
+      <c r="C21" s="1"/>
+      <c r="M21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3" t="s">
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3" t="s">
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3" t="s">
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
+      <c r="C22" s="1"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
+      <c r="A23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
     </row>
     <row r="33" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
     </row>
     <row r="34" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
     </row>
     <row r="35" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
     </row>
     <row r="36" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
     </row>
     <row r="37" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
     </row>
     <row r="38" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
     </row>
     <row r="40" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3" t="s">
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="M40" s="3" t="s">
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="M40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3" t="s">
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" t="s">
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="V40" s="3" t="s">
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3" t="s">
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
     </row>
     <row r="41" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
     </row>
     <row r="42" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
     </row>
     <row r="43" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
     </row>
     <row r="44" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
     </row>
     <row r="45" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
     </row>
     <row r="46" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
     </row>
     <row r="47" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
     </row>
     <row r="48" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
     </row>
     <row r="49" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
     </row>
     <row r="50" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
     </row>
     <row r="51" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
     </row>
     <row r="52" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
     </row>
     <row r="53" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
     </row>
     <row r="54" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
     </row>
     <row r="55" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
     </row>
     <row r="56" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
     </row>
     <row r="57" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
     </row>
     <row r="58" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="P58" s="3" t="s">
+      <c r="P58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
     </row>
     <row r="59" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="M59" s="3" t="s">
+      <c r="M59" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3" t="s">
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3" t="s">
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
     </row>
     <row r="60" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
     </row>
     <row r="61" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
     </row>
     <row r="62" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
     </row>
     <row r="63" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
     </row>
     <row r="64" spans="3:27" x14ac:dyDescent="0.3">
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
     </row>
     <row r="65" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
     </row>
     <row r="66" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
     </row>
     <row r="67" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
     </row>
     <row r="68" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
     </row>
     <row r="69" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
     </row>
     <row r="70" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3"/>
-      <c r="R70" s="3"/>
-      <c r="S70" s="3"/>
-      <c r="T70" s="3"/>
-      <c r="U70" s="3"/>
-      <c r="V70" s="3"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
     </row>
     <row r="71" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3"/>
-      <c r="R71" s="3"/>
-      <c r="S71" s="3"/>
-      <c r="T71" s="3"/>
-      <c r="U71" s="3"/>
-      <c r="V71" s="3"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
     </row>
     <row r="72" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
     </row>
     <row r="73" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
     </row>
     <row r="74" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
     </row>
     <row r="75" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
     </row>
     <row r="76" spans="13:22" x14ac:dyDescent="0.3">
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
